--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Procr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Proc-Procr.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>7.227365333333332</v>
+        <v>2.473670666666667</v>
       </c>
       <c r="N2">
-        <v>21.682096</v>
+        <v>7.421011999999999</v>
       </c>
       <c r="O2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="P2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="Q2">
-        <v>1.4142147116</v>
+        <v>0.4840355077</v>
       </c>
       <c r="R2">
-        <v>12.7279324044</v>
+        <v>4.3563195693</v>
       </c>
       <c r="S2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
       <c r="T2">
-        <v>0.1241091393606781</v>
+        <v>0.04625390589638428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>91.794633</v>
       </c>
       <c r="O3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="P3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="Q3">
         <v>5.987304937425001</v>
@@ -632,10 +632,10 @@
         <v>53.88574443682501</v>
       </c>
       <c r="S3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
       <c r="T3">
-        <v>0.5254359587541397</v>
+        <v>0.5721403383494235</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>61.225119</v>
       </c>
       <c r="O4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="P4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="Q4">
         <v>3.993408386775001</v>
@@ -694,10 +694,10 @@
         <v>35.940675480975</v>
       </c>
       <c r="S4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
       <c r="T4">
-        <v>0.3504549018851821</v>
+        <v>0.3816057557541923</v>
       </c>
     </row>
   </sheetData>
